--- a/PLANILHA_PADRAO.xlsx
+++ b/PLANILHA_PADRAO.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b7fab9242a38aa1/Anexos/Área de Trabalho/projeto_users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{E0C661F4-5D4B-42E3-992E-51A21D04230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691EBCE5-2C77-4F93-B175-CC33699CE772}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_DC0C95DE417E3C9F6963F0974D0A0E38F8296DAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD027A8A-04DC-4580-854D-D18406061C7B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02D1EADD-FA41-4C5D-B9D2-551FFF10C9F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,40 +33,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+  <si>
+    <t>TURMA: RECURSOS HUMANOS               TÉRMINO DO CURSO: 12/12/2024</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
   <si>
     <t>CPF</t>
   </si>
   <si>
+    <t>USUÁRIO</t>
+  </si>
+  <si>
     <t>SENHA</t>
   </si>
   <si>
-    <t>USUÁRIO</t>
-  </si>
-  <si>
     <t>E-MAIL / OFFICE 365</t>
   </si>
   <si>
-    <t xml:space="preserve">TURMA:                          TÉRMINO DO CURSO: </t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>ALUNO</t>
+    <t>1234567891011</t>
+  </si>
+  <si>
+    <t>00909192</t>
+  </si>
+  <si>
+    <t>9192</t>
+  </si>
+  <si>
+    <t>00909192@alunosenai.mt</t>
   </si>
   <si>
     <t>leandro soares dos santos</t>
   </si>
   <si>
-    <t>1234567891011</t>
+    <t>ADRIAN SCHAEDLER DA SILVA</t>
+  </si>
+  <si>
+    <t>EDU VITOR VARGAS</t>
+  </si>
+  <si>
+    <t>GUILHERME DE ALMEIDA MARTINS</t>
+  </si>
+  <si>
+    <t>JEAN DA COSTA SILVA</t>
+  </si>
+  <si>
+    <t>JOSÉ OTÁVIO DEBORTOLI BARROS</t>
+  </si>
+  <si>
+    <t>JOSEANE DE SOUSA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>LUIZ HENRIQUE FARIAS DE LIMA</t>
+  </si>
+  <si>
+    <t>NICOLE DE SOUSA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>PEDRO MIGUEL LOQUETI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +142,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -137,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -167,22 +228,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -191,68 +252,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,24 +330,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -286,7 +361,15 @@
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -297,6 +380,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,375 +702,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EEC73F-E6DE-4DE3-A743-FAC743BD83DD}">
-  <dimension ref="B1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="85.6640625" customWidth="1"/>
-    <col min="4" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="85.6640625" customWidth="1"/>
+    <col min="5" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="4"/>
+      <c r="D4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4"/>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4"/>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="4"/>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="4"/>
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="4"/>
+      <c r="D12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="4"/>
+      <c r="D13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="4"/>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" s="16" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="12">
         <v>909192</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="22"/>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(D1&lt;&gt;"", COUNTIF($D$1:$D$100, D1) &gt; 1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>